--- a/public/lcad-evaluation/assets/data/LCA/Design B/Process Contribution B - Characterization.XLSX
+++ b/public/lcad-evaluation/assets/data/LCA/Design B/Process Contribution B - Characterization.XLSX
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="XLSReadWriteII" lastEdited="4" lowestEdited="4" rupBuild="4.00.38"/>
   <sheets>
-    <sheet name="Sheet7" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -45,9 +45,6 @@
     <t>Sort order: </t>
   </si>
   <si>
-    <t>Induction Hardening Bearing Surface 1</t>
-  </si>
-  <si>
     <t>Analyze</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>0 %</t>
+  </si>
+  <si>
+    <t>Induction Hardening Bearing Surfaces 1, 2</t>
   </si>
   <si>
     <t>Total</t>
@@ -527,24 +527,24 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="1">
-        <v>45571</v>
+        <v>45572</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="2">
-        <v>0.582846689814815</v>
+        <v>0.808306076388889</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -555,15 +555,15 @@
         <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -603,7 +603,7 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -646,28 +646,28 @@
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
         <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
         <v>34</v>
@@ -700,13 +700,13 @@
         <v>32</v>
       </c>
       <c r="U17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W17" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -723,7 +723,7 @@
         <v>31</v>
       </c>
       <c r="E18">
-        <v>213.342033506948</v>
+        <v>174.399516254188</v>
       </c>
       <c r="F18">
         <v>63.9589530731124</v>
@@ -777,7 +777,7 @@
         <v>0.00602445398071517</v>
       </c>
       <c r="W18">
-        <v>73.0172198489251</v>
+        <v>34.074702596165</v>
       </c>
     </row>
     <row r="19">
@@ -856,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -927,7 +927,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -936,7 +936,7 @@
         <v>31</v>
       </c>
       <c r="E21">
-        <v>73.0172198489251</v>
+        <v>34.074702596165</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>73.0172198489251</v>
+        <v>34.074702596165</v>
       </c>
     </row>
     <row r="22">
@@ -1069,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
@@ -1140,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>43</v>
@@ -1424,7 +1424,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
@@ -1637,7 +1637,7 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>

--- a/public/lcad-evaluation/assets/data/LCA/Design B/Process Contribution B - Characterization.XLSX
+++ b/public/lcad-evaluation/assets/data/LCA/Design B/Process Contribution B - Characterization.XLSX
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="XLSReadWriteII" lastEdited="4" lowestEdited="4" rupBuild="4.00.38"/>
   <sheets>
-    <sheet name="Sheet4" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet8" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -12,25 +12,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="49">
   <si>
-    <t>Turning Fillets 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11</t>
-  </si>
-  <si>
-    <t>Turning Surface 1</t>
-  </si>
-  <si>
-    <t>Turning Surface 7</t>
-  </si>
-  <si>
-    <t>Turning Top Hole</t>
-  </si>
-  <si>
-    <t>Turning Groove 2</t>
+    <t>Turning 11</t>
+  </si>
+  <si>
+    <t>Milling</t>
   </si>
   <si>
     <t>SimaPro 8.5.2.0</t>
   </si>
   <si>
-    <t>Turning Surface 4, Face 4, Bearing Surface 1</t>
+    <t>Turning 13b</t>
   </si>
   <si>
     <t>No</t>
@@ -42,6 +33,9 @@
     <t>Exclude infrastructure processes: </t>
   </si>
   <si>
+    <t>Turning 4</t>
+  </si>
+  <si>
     <t>Sort order: </t>
   </si>
   <si>
@@ -51,37 +45,43 @@
     <t>Process contribution</t>
   </si>
   <si>
-    <t>Grinding Bearing Surfaces 1, 2</t>
+    <t>Turning 8</t>
+  </si>
+  <si>
+    <t>Turning 6</t>
   </si>
   <si>
     <t>1 p Screw Pump Shaft - Design B (of project Screw Pump Shaft)</t>
   </si>
   <si>
+    <t>Turning 2</t>
+  </si>
+  <si>
     <t>Results: </t>
   </si>
   <si>
     <t>Project</t>
   </si>
   <si>
+    <t>Turning 10</t>
+  </si>
+  <si>
     <t>Primary Production Steel Billet</t>
   </si>
   <si>
     <t>Unit</t>
   </si>
   <si>
-    <t>Turning Groove 1</t>
-  </si>
-  <si>
-    <t>Turning Surface 2, Face 2</t>
-  </si>
-  <si>
-    <t>Turning Chamfer 6</t>
+    <t>Induction Hardening</t>
+  </si>
+  <si>
+    <t>Turning 14</t>
   </si>
   <si>
     <t>0 %</t>
   </si>
   <si>
-    <t>Induction Hardening Bearing Surfaces 1, 2</t>
+    <t>Drilling</t>
   </si>
   <si>
     <t>Total</t>
@@ -90,16 +90,13 @@
     <t>Method: </t>
   </si>
   <si>
-    <t>Turning Surface 6</t>
-  </si>
-  <si>
     <t>Exclude long-term emissions: </t>
   </si>
   <si>
     <t>Sorted on item: </t>
   </si>
   <si>
-    <t>Turning Surface 5, Face 5, Bearing Surface 2</t>
+    <t>Turning 1</t>
   </si>
   <si>
     <t>ReCiPe 2016 Midpoint (H) V1.00</t>
@@ -108,15 +105,9 @@
     <t>kg CO2 eq</t>
   </si>
   <si>
-    <t>Milling Keyway</t>
-  </si>
-  <si>
     <t>Total of all processes</t>
   </si>
   <si>
-    <t>Turning Face 3</t>
-  </si>
-  <si>
     <t>Indicator: </t>
   </si>
   <si>
@@ -132,6 +123,12 @@
     <t>Cut-off: </t>
   </si>
   <si>
+    <t>Surface Grinding</t>
+  </si>
+  <si>
+    <t>Turning 5</t>
+  </si>
+  <si>
     <t>Category: </t>
   </si>
   <si>
@@ -141,19 +138,22 @@
     <t>Calculation: </t>
   </si>
   <si>
+    <t>Turning 3</t>
+  </si>
+  <si>
     <t>Screw Pump Shaft</t>
   </si>
   <si>
-    <t>Drilling Bushing Holes</t>
-  </si>
-  <si>
     <t>Ascending</t>
   </si>
   <si>
+    <t>Turning 7</t>
+  </si>
+  <si>
+    <t>Turning 9</t>
+  </si>
+  <si>
     <t>Process</t>
-  </si>
-  <si>
-    <t>Turning Face 1</t>
   </si>
   <si>
     <t/>
@@ -524,22 +524,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45574</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1">
-        <v>45572</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="2">
-        <v>0.808306076388889</v>
+        <v>0.88120849537037</v>
       </c>
     </row>
     <row r="2">
@@ -552,10 +552,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -563,15 +563,15 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -579,28 +579,28 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -608,105 +608,105 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
         <v>24</v>
       </c>
       <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" t="s">
         <v>17</v>
       </c>
-      <c r="G17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="Q17" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s">
+        <v>23</v>
+      </c>
+      <c r="T17" t="s">
         <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S17" t="s">
-        <v>44</v>
-      </c>
-      <c r="T17" t="s">
-        <v>32</v>
       </c>
       <c r="U17" t="s">
         <v>21</v>
       </c>
       <c r="V17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="W17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -714,13 +714,13 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>174.399516254188</v>
@@ -785,13 +785,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0.607958396804863</v>
@@ -856,16 +856,16 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20">
-        <v>0.00602445398071517</v>
+        <v>34.074702596165</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0.00602445398071517</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>34.074702596165</v>
       </c>
     </row>
     <row r="21">
@@ -927,16 +927,16 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21">
-        <v>34.074702596165</v>
+        <v>0.224041935441336</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>0.224041935441336</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>34.074702596165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -998,19 +998,19 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22">
-        <v>0.224041935441336</v>
+        <v>63.9589530731124</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>63.9589530731124</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0.224041935441336</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -1069,19 +1069,19 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23">
-        <v>63.9589530731124</v>
+        <v>0.00602445398071517</v>
       </c>
       <c r="F23">
-        <v>63.9589530731124</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>0.00602445398071517</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -1140,22 +1140,22 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
         <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24">
-        <v>0.0032416558377157</v>
+        <v>5.33929176065162</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>5.33929176065162</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0.0032416558377157</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25">
-        <v>5.33929176065162</v>
+        <v>0.763153110081966</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>5.33929176065162</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.763153110081966</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -1282,16 +1282,16 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
         <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26">
-        <v>18.5499597928619</v>
+        <v>5.93255607296898</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>18.5499597928619</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>5.93255607296898</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
         <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>0.0215720390146864</v>
@@ -1424,16 +1424,16 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28">
-        <v>0.366257193819102</v>
+        <v>0.0032416558377157</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.366257193819102</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>0.0032416558377157</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -1495,16 +1495,16 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
         <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29">
-        <v>0.0238857139572322</v>
+        <v>1.66279980651279</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1.66279980651279</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0.0238857139572322</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -1566,13 +1566,13 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30">
         <v>0.00319567275831364</v>
@@ -1637,16 +1637,16 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31">
-        <v>1.66279980651279</v>
+        <v>0.366257193819102</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1.66279980651279</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>0.366257193819102</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1708,16 +1708,16 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32">
-        <v>36.5278617923178</v>
+        <v>18.5499597928619</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>18.5499597928619</v>
       </c>
       <c r="L32">
-        <v>36.5278617923178</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -1779,16 +1779,16 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
         <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33">
-        <v>5.98227588261298</v>
+        <v>36.5278617923178</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>36.5278617923178</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>5.98227588261298</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
         <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34">
-        <v>0.351785305288405</v>
+        <v>0.0238857139572322</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1883,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>0.0238857139572322</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0.351785305288405</v>
+        <v>0</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -1921,16 +1921,16 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
         <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35">
-        <v>0.763153110081966</v>
+        <v>5.98227588261298</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1957,13 +1957,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>5.98227588261298</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
       <c r="P35">
-        <v>0.763153110081966</v>
+        <v>0</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -1992,16 +1992,16 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36">
-        <v>5.93255607296898</v>
+        <v>0.351785305288405</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2031,13 +2031,13 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.351785305288405</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>5.93255607296898</v>
+        <v>0</v>
       </c>
       <c r="R36">
         <v>0</v>
